--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H2">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I2">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J2">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N2">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O2">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P2">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q2">
-        <v>56.84546713030845</v>
+        <v>17.51842383032133</v>
       </c>
       <c r="R2">
-        <v>511.609204172776</v>
+        <v>157.665814472892</v>
       </c>
       <c r="S2">
-        <v>0.00560205825141072</v>
+        <v>0.001609998839318263</v>
       </c>
       <c r="T2">
-        <v>0.00560205825141072</v>
+        <v>0.001609998839318262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H3">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I3">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J3">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>28.185334</v>
       </c>
       <c r="N3">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O3">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P3">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q3">
-        <v>36.00451875339134</v>
+        <v>36.00489455784466</v>
       </c>
       <c r="R3">
-        <v>324.040668780522</v>
+        <v>324.044051020602</v>
       </c>
       <c r="S3">
-        <v>0.003548205715473263</v>
+        <v>0.003308964265813351</v>
       </c>
       <c r="T3">
-        <v>0.003548205715473264</v>
+        <v>0.00330896426581335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H4">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I4">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J4">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N4">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O4">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P4">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q4">
-        <v>21.756719091294</v>
+        <v>26.92452772847077</v>
       </c>
       <c r="R4">
-        <v>195.810471821646</v>
+        <v>242.3207495562369</v>
       </c>
       <c r="S4">
-        <v>0.002144100732422767</v>
+        <v>0.002474449688618774</v>
       </c>
       <c r="T4">
-        <v>0.002144100732422767</v>
+        <v>0.002474449688618773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H5">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I5">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J5">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N5">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O5">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P5">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q5">
-        <v>79.60577490002144</v>
+        <v>113.8938758253939</v>
       </c>
       <c r="R5">
-        <v>716.451974100193</v>
+        <v>1025.044882428545</v>
       </c>
       <c r="S5">
-        <v>0.007845061544068794</v>
+        <v>0.01046720924555797</v>
       </c>
       <c r="T5">
-        <v>0.007845061544068796</v>
+        <v>0.01046720924555796</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H6">
         <v>136.341755</v>
       </c>
       <c r="I6">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J6">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N6">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O6">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P6">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q6">
-        <v>2022.412031002342</v>
+        <v>623.2528838052733</v>
       </c>
       <c r="R6">
-        <v>18201.70827902108</v>
+        <v>5609.275954247461</v>
       </c>
       <c r="S6">
-        <v>0.1993064808502262</v>
+        <v>0.05727892128009123</v>
       </c>
       <c r="T6">
-        <v>0.1993064808502262</v>
+        <v>0.05727892128009123</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H7">
         <v>136.341755</v>
       </c>
       <c r="I7">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J7">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>28.185334</v>
       </c>
       <c r="N7">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O7">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P7">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q7">
         <v>1280.945967607056</v>
@@ -883,10 +883,10 @@
         <v>11528.51370846351</v>
       </c>
       <c r="S7">
-        <v>0.1262358159709517</v>
+        <v>0.1177230064218021</v>
       </c>
       <c r="T7">
-        <v>0.1262358159709517</v>
+        <v>0.1177230064218021</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H8">
         <v>136.341755</v>
       </c>
       <c r="I8">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J8">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N8">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O8">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P8">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q8">
-        <v>774.0467739407698</v>
+        <v>957.8937988028259</v>
       </c>
       <c r="R8">
-        <v>6966.420965466928</v>
+        <v>8621.044189225435</v>
       </c>
       <c r="S8">
-        <v>0.07628145806230457</v>
+        <v>0.08803348515826055</v>
       </c>
       <c r="T8">
-        <v>0.0762814580623046</v>
+        <v>0.08803348515826055</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H9">
         <v>136.341755</v>
       </c>
       <c r="I9">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J9">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N9">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O9">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P9">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q9">
-        <v>2832.163847400756</v>
+        <v>4052.001894889331</v>
       </c>
       <c r="R9">
-        <v>25489.47462660681</v>
+        <v>36468.01705400398</v>
       </c>
       <c r="S9">
-        <v>0.2791066315685046</v>
+        <v>0.3723918550478158</v>
       </c>
       <c r="T9">
-        <v>0.2791066315685047</v>
+        <v>0.3723918550478157</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H10">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I10">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J10">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N10">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O10">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P10">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q10">
-        <v>868.7135767610042</v>
+        <v>328.5919564816333</v>
       </c>
       <c r="R10">
-        <v>7818.422190849039</v>
+        <v>2957.3276083347</v>
       </c>
       <c r="S10">
-        <v>0.08561076733964904</v>
+        <v>0.03019864536152411</v>
       </c>
       <c r="T10">
-        <v>0.08561076733964908</v>
+        <v>0.03019864536152411</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H11">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I11">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J11">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>28.185334</v>
       </c>
       <c r="N11">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O11">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P11">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q11">
-        <v>550.2217827521532</v>
+        <v>675.3415067627167</v>
       </c>
       <c r="R11">
-        <v>4951.996044769379</v>
+        <v>6078.07356086445</v>
       </c>
       <c r="S11">
-        <v>0.05422375140495905</v>
+        <v>0.06206603131438661</v>
       </c>
       <c r="T11">
-        <v>0.05422375140495907</v>
+        <v>0.06206603131438659</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H12">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I12">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J12">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N12">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O12">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P12">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q12">
-        <v>332.4866205612599</v>
+        <v>505.021646315536</v>
       </c>
       <c r="R12">
-        <v>2992.379585051339</v>
+        <v>4545.194816839825</v>
       </c>
       <c r="S12">
-        <v>0.03276619069607009</v>
+        <v>0.04641309470954255</v>
       </c>
       <c r="T12">
-        <v>0.0327661906960701</v>
+        <v>0.04641309470954254</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H13">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I13">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J13">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N13">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O13">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P13">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q13">
-        <v>1216.537059774774</v>
+        <v>2136.300151841681</v>
       </c>
       <c r="R13">
-        <v>10948.83353797297</v>
+        <v>19226.70136657513</v>
       </c>
       <c r="S13">
-        <v>0.119888388958714</v>
+        <v>0.1963327750380981</v>
       </c>
       <c r="T13">
-        <v>0.119888388958714</v>
+        <v>0.196332775038098</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H14">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I14">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J14">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N14">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O14">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P14">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q14">
-        <v>22.10056714334489</v>
+        <v>11.47736907942667</v>
       </c>
       <c r="R14">
-        <v>198.905104290104</v>
+        <v>103.29632171484</v>
       </c>
       <c r="S14">
-        <v>0.002177986579693713</v>
+        <v>0.001054806703804089</v>
       </c>
       <c r="T14">
-        <v>0.002177986579693713</v>
+        <v>0.001054806703804089</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H15">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I15">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J15">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>28.185334</v>
       </c>
       <c r="N15">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O15">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P15">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q15">
-        <v>13.99795488264867</v>
+        <v>23.58896368239333</v>
       </c>
       <c r="R15">
-        <v>125.981593943838</v>
+        <v>212.30067314154</v>
       </c>
       <c r="S15">
-        <v>0.001379483054883842</v>
+        <v>0.002167900749360812</v>
       </c>
       <c r="T15">
-        <v>0.001379483054883843</v>
+        <v>0.002167900749360811</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H16">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I16">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J16">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N16">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O16">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P16">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q16">
-        <v>8.458648602425997</v>
+        <v>17.63987131616555</v>
       </c>
       <c r="R16">
-        <v>76.12783742183399</v>
+        <v>158.75884184549</v>
       </c>
       <c r="S16">
-        <v>0.000833590514620637</v>
+        <v>0.001621160249336719</v>
       </c>
       <c r="T16">
-        <v>0.0008335905146206371</v>
+        <v>0.001621160249336719</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H17">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I17">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J17">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N17">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O17">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P17">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q17">
-        <v>30.94939424357188</v>
+        <v>74.61870208162779</v>
       </c>
       <c r="R17">
-        <v>278.544548192147</v>
+        <v>671.56831873465</v>
       </c>
       <c r="S17">
-        <v>0.003050028756047</v>
+        <v>0.006857695926669013</v>
       </c>
       <c r="T17">
-        <v>0.003050028756047001</v>
+        <v>0.006857695926669011</v>
       </c>
     </row>
   </sheetData>
